--- a/10v15/11/USQ-Cup/UMD_TAMU.xlsx
+++ b/10v15/11/USQ-Cup/UMD_TAMU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v15\11\USQ-Cup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3932AC84-F8B1-4F0A-A6C3-D1ABA24894BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2343ABEA-D054-4F66-BD86-0FE0F54FA9A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="98">
   <si>
     <t>A</t>
   </si>
@@ -203,6 +203,129 @@
   <si>
     <t>ABBY POTTER</t>
   </si>
+  <si>
+    <t>JOHN SHERIDAN</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0131</t>
+  </si>
+  <si>
+    <t>0226</t>
+  </si>
+  <si>
+    <t>0348</t>
+  </si>
+  <si>
+    <t>0411</t>
+  </si>
+  <si>
+    <t>0416</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0318</t>
+  </si>
+  <si>
+    <t>0452</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>0611</t>
+  </si>
+  <si>
+    <t>0644</t>
+  </si>
+  <si>
+    <t>0723</t>
+  </si>
+  <si>
+    <t>0732</t>
+  </si>
+  <si>
+    <t>0808</t>
+  </si>
+  <si>
+    <t>0842</t>
+  </si>
+  <si>
+    <t>0954</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>1328</t>
+  </si>
+  <si>
+    <t>1416</t>
+  </si>
+  <si>
+    <t>1439</t>
+  </si>
+  <si>
+    <t>1511</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>1724</t>
+  </si>
+  <si>
+    <t>1650</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>1839</t>
+  </si>
+  <si>
+    <t>1858</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
+    <t>1944</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2052</t>
+  </si>
 </sst>
 </file>
 
@@ -218,27 +341,32 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -727,8 +855,8 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -962,37 +1090,51 @@
       <c r="E7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="5"/>
+      <c r="U7" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
@@ -1095,44 +1237,60 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="M10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="5"/>
+      <c r="U10" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X10" s="8"/>
+      <c r="X10" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
@@ -1241,50 +1399,66 @@
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="D13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="J13" s="6" t="s">
         <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="M13" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="V13" s="6" t="s">
         <v>48</v>
       </c>
       <c r="W13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
@@ -1320,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L14" s="11">
         <v>1</v>
@@ -1333,7 +1507,7 @@
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="10">
         <v>4</v>
@@ -1393,46 +1567,62 @@
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R16" s="8"/>
+      <c r="R16" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="S16" s="3" t="s">
         <v>51</v>
       </c>
       <c r="T16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="5"/>
+      <c r="U16" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="V16" s="6" t="s">
         <v>52</v>
       </c>
       <c r="W16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X16" s="8"/>
+      <c r="X16" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
@@ -1539,46 +1729,64 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="5"/>
+      <c r="O19" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R19" s="8"/>
+      <c r="R19" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="5"/>
+      <c r="U19" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="V19" s="6"/>
       <c r="W19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X19" s="8"/>
+      <c r="X19" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
@@ -29034,8 +29242,8 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29226,6 +29434,9 @@
       <c r="A22" s="12">
         <v>20</v>
       </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
       <c r="C22" s="12" t="s">
         <v>17</v>
       </c>
